--- a/SGA/template/Users.xlsx
+++ b/SGA/template/Users.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhasan\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>First name</t>
   </si>
@@ -27,9 +32,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
     <t>Job Role</t>
   </si>
   <si>
@@ -39,24 +41,6 @@
     <t>Added By Admin</t>
   </si>
   <si>
-    <t>Level of education</t>
-  </si>
-  <si>
-    <t>Phone No</t>
-  </si>
-  <si>
-    <t>In which state do you work?</t>
-  </si>
-  <si>
-    <t>Postcode</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>JobTitle</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -66,97 +50,13 @@
     <t>Register date</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>Annualised revenues</t>
-  </si>
-  <si>
-    <t>Spend under influence</t>
-  </si>
-  <si>
-    <t>Procurement model</t>
-  </si>
-  <si>
-    <t>Number of employees</t>
-  </si>
-  <si>
-    <t>Years of procurement experience</t>
-  </si>
-  <si>
-    <t>Category you manage currently</t>
-  </si>
-  <si>
-    <t>Procurement function reports to</t>
-  </si>
-  <si>
-    <t>Procurement qualifications</t>
-  </si>
-  <si>
-    <t>Geographical influence</t>
-  </si>
-  <si>
-    <t>Procurement Knowledge Evaluation - Assigned</t>
-  </si>
-  <si>
-    <t>Procurement Knowledge Evaluation - Started</t>
-  </si>
-  <si>
-    <t>Skills Self Assessment Given</t>
-  </si>
-  <si>
-    <t>Behavioural Assessment Given</t>
-  </si>
-  <si>
-    <t>Negotiation Profile Assessment Given</t>
-  </si>
-  <si>
-    <t>Maturity Profile Assessment Given</t>
-  </si>
-  <si>
-    <t>Negotiation Profile Assessment Given1</t>
-  </si>
-  <si>
-    <t>Contract Management Assessmen Given</t>
-  </si>
-  <si>
-    <t>Procurement Knowledge Evaluation - Completed</t>
-  </si>
-  <si>
-    <t>Behavioural Assessment Completed</t>
-  </si>
-  <si>
-    <t>Skills Self Assessment Completed</t>
-  </si>
-  <si>
-    <t>Negotiation Profile Assessment Completed</t>
-  </si>
-  <si>
-    <t>Maturity Profile Assessment Completed</t>
-  </si>
-  <si>
-    <t>Contract Management Assessment Completed</t>
-  </si>
-  <si>
-    <t>Procurement Knowledge Evaluation Link</t>
-  </si>
-  <si>
-    <t>Behavioural Assessment Link</t>
-  </si>
-  <si>
-    <t>Skills Self Assessment Link</t>
-  </si>
-  <si>
-    <t>Negotiation Profile Assessment Link</t>
-  </si>
-  <si>
-    <t>Maturity Profile Assessment Link</t>
-  </si>
-  <si>
-    <t>Contract Management Assessment Link</t>
+    <t>membershipAssociation</t>
+  </si>
+  <si>
+    <t>Procurement Benchmark Assessment - Completed</t>
+  </si>
+  <si>
+    <t>Procurement Benchmark Assessment - Started</t>
   </si>
 </sst>
 </file>
@@ -715,6 +615,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -762,7 +665,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -797,7 +700,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1006,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,54 +921,19 @@
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="36.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1"/>
-    <col min="14" max="14" width="23.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.42578125" customWidth="1"/>
-    <col min="16" max="16" width="25.7109375" customWidth="1"/>
-    <col min="17" max="17" width="28.28515625" customWidth="1"/>
-    <col min="18" max="18" width="26.85546875" customWidth="1"/>
-    <col min="19" max="19" width="28" customWidth="1"/>
-    <col min="20" max="20" width="27.28515625" customWidth="1"/>
-    <col min="21" max="21" width="32" customWidth="1"/>
-    <col min="22" max="22" width="23.85546875" customWidth="1"/>
-    <col min="23" max="23" width="22.5703125" customWidth="1"/>
-    <col min="24" max="24" width="27.28515625" customWidth="1"/>
-    <col min="25" max="25" width="22.140625" customWidth="1"/>
-    <col min="26" max="26" width="21.85546875" customWidth="1"/>
-    <col min="27" max="27" width="28.140625" customWidth="1"/>
-    <col min="28" max="28" width="35.28515625" customWidth="1"/>
-    <col min="29" max="29" width="25.7109375" customWidth="1"/>
-    <col min="30" max="30" width="26.28515625" customWidth="1"/>
-    <col min="31" max="31" width="27.7109375" customWidth="1"/>
-    <col min="32" max="32" width="27.5703125" customWidth="1"/>
-    <col min="33" max="33" width="32.140625" customWidth="1"/>
-    <col min="34" max="34" width="31.85546875" customWidth="1"/>
-    <col min="35" max="35" width="34.7109375" customWidth="1"/>
-    <col min="36" max="36" width="25.28515625" customWidth="1"/>
-    <col min="37" max="37" width="31.42578125" customWidth="1"/>
-    <col min="38" max="38" width="30.28515625" customWidth="1"/>
-    <col min="39" max="39" width="30.5703125" customWidth="1"/>
-    <col min="40" max="40" width="33.42578125" customWidth="1"/>
-    <col min="41" max="41" width="27.7109375" customWidth="1"/>
-    <col min="42" max="42" width="27.28515625" customWidth="1"/>
-    <col min="43" max="43" width="21.140625" customWidth="1"/>
-    <col min="44" max="44" width="21.28515625" customWidth="1"/>
-    <col min="45" max="45" width="20" customWidth="1"/>
-    <col min="46" max="46" width="15.42578125" customWidth="1"/>
-    <col min="47" max="47" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" customWidth="1"/>
+    <col min="12" max="12" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1077,133 +945,28 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
